--- a/MPU6050DataCollector/MPU6050DataCollector/Data/data01.xlsx
+++ b/MPU6050DataCollector/MPU6050DataCollector/Data/data01.xlsx
@@ -376,13 +376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>399608</v>
       </c>
@@ -445,8 +452,12 @@
       <c r="J2">
         <v>2.5299428647904398</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>ABS(A2)</f>
+        <v>399608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>402000</v>
       </c>
@@ -477,8 +488,12 @@
       <c r="J3">
         <v>2.4184465148935499</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">ABS(A3)</f>
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>415804</v>
       </c>
@@ -509,8 +524,12 @@
       <c r="J4">
         <v>2.4509177742106498</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>415804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>385804</v>
       </c>
@@ -541,8 +560,12 @@
       <c r="J5">
         <v>2.4474246412261098</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>385804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>397804</v>
       </c>
@@ -573,8 +596,12 @@
       <c r="J6">
         <v>2.5206476691591502</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>397804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>420000</v>
       </c>
@@ -605,8 +632,12 @@
       <c r="J7">
         <v>2.63055670857438</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>420628</v>
       </c>
@@ -637,8 +668,12 @@
       <c r="J8">
         <v>2.40217129915934</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>420628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>432000</v>
       </c>
@@ -669,8 +704,12 @@
       <c r="J9">
         <v>2.5115487089695301</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>419804</v>
       </c>
@@ -701,8 +740,12 @@
       <c r="J10">
         <v>2.5513222700823999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>419804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>373608</v>
       </c>
@@ -733,8 +776,12 @@
       <c r="J11">
         <v>2.3832036173816702</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>373608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>343804</v>
       </c>
@@ -765,8 +812,12 @@
       <c r="J12">
         <v>2.2611112558431099</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>343804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>415608</v>
       </c>
@@ -797,8 +848,12 @@
       <c r="J13">
         <v>2.4727975540845701</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>415608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>395804</v>
       </c>
@@ -829,8 +884,12 @@
       <c r="J14">
         <v>2.3476252562721398</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>395804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>419804</v>
       </c>
@@ -861,8 +920,12 @@
       <c r="J15">
         <v>2.5529187777650999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>419804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>405608</v>
       </c>
@@ -893,8 +956,12 @@
       <c r="J16">
         <v>2.3956948037147701</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>405608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>415804</v>
       </c>
@@ -925,8 +992,12 @@
       <c r="J17">
         <v>2.4212611565563602</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>415804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>374000</v>
       </c>
@@ -957,8 +1028,12 @@
       <c r="J18">
         <v>2.3800592229305302</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>390000</v>
       </c>
@@ -989,8 +1064,12 @@
       <c r="J19">
         <v>2.4685160246808602</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>407804</v>
       </c>
@@ -1021,8 +1100,12 @@
       <c r="J20">
         <v>2.48940469665015</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>407804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>387608</v>
       </c>
@@ -1053,8 +1136,12 @@
       <c r="J21">
         <v>2.4079365042038599</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>387608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>375608</v>
       </c>
@@ -1085,8 +1172,12 @@
       <c r="J22">
         <v>2.3491440668133001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>375608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>430000</v>
       </c>
@@ -1117,8 +1208,12 @@
       <c r="J23">
         <v>2.4368647778275001</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>387804</v>
       </c>
@@ -1149,8 +1244,12 @@
       <c r="J24">
         <v>2.3547841364476101</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>387804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>407608</v>
       </c>
@@ -1181,8 +1280,12 @@
       <c r="J25">
         <v>2.4713836040057</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>407608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>391804</v>
       </c>
@@ -1213,8 +1316,12 @@
       <c r="J26">
         <v>2.35144190909261</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>391804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>381608</v>
       </c>
@@ -1245,8 +1352,12 @@
       <c r="J27">
         <v>2.3708674412121402</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>381608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>400000</v>
       </c>
@@ -1277,8 +1388,12 @@
       <c r="J28">
         <v>2.4302527741323301</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>357804</v>
       </c>
@@ -1309,8 +1424,12 @@
       <c r="J29">
         <v>2.23721882616625</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>357804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>409412</v>
       </c>
@@ -1341,8 +1460,12 @@
       <c r="J30">
         <v>2.5091944557783701</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>409412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>423804</v>
       </c>
@@ -1373,8 +1496,12 @@
       <c r="J31">
         <v>2.5897543130703902</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>423804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>385412</v>
       </c>
@@ -1405,8 +1532,12 @@
       <c r="J32">
         <v>2.35314847270147</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>385412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>387804</v>
       </c>
@@ -1437,8 +1568,12 @@
       <c r="J33">
         <v>2.47999338403678</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>387804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>395804</v>
       </c>
@@ -1469,8 +1604,12 @@
       <c r="J34">
         <v>2.53707987339387</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>395804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>379804</v>
       </c>
@@ -1501,8 +1640,12 @@
       <c r="J35">
         <v>2.4408281257576498</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>379804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>431804</v>
       </c>
@@ -1533,8 +1676,12 @@
       <c r="J36">
         <v>2.6237790661390599</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>431804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>381608</v>
       </c>
@@ -1565,8 +1712,12 @@
       <c r="J37">
         <v>2.39228619260453</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>381608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>375804</v>
       </c>
@@ -1597,8 +1748,12 @@
       <c r="J38">
         <v>2.3667075666409501</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>375804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>418000</v>
       </c>
@@ -1629,8 +1784,12 @@
       <c r="J39">
         <v>2.47215738322731</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>418000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>431804</v>
       </c>
@@ -1661,8 +1820,12 @@
       <c r="J40">
         <v>2.5575832654250599</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>431804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>417804</v>
       </c>
@@ -1693,8 +1856,12 @@
       <c r="J41">
         <v>2.4836901233451001</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>417804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>425608</v>
       </c>
@@ -1725,8 +1892,12 @@
       <c r="J42">
         <v>2.5197742599140098</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>425608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>375608</v>
       </c>
@@ -1757,8 +1928,12 @@
       <c r="J43">
         <v>2.3567529360869401</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>375608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>417608</v>
       </c>
@@ -1789,8 +1964,12 @@
       <c r="J44">
         <v>2.47354420800206</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>417608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>377804</v>
       </c>
@@ -1821,8 +2000,12 @@
       <c r="J45">
         <v>2.3737435154783499</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>377804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>409608</v>
       </c>
@@ -1853,8 +2036,12 @@
       <c r="J46">
         <v>2.4264271449659498</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>409608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1620268</v>
       </c>
@@ -1885,8 +2072,12 @@
       <c r="J47">
         <v>5.7014248616363403</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1620268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13432984</v>
       </c>
@@ -1917,8 +2108,12 @@
       <c r="J48">
         <v>59.6898790043604</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>13432984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16025460</v>
       </c>
@@ -1949,8 +2144,12 @@
       <c r="J49">
         <v>109.773777392518</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>16025460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15140896</v>
       </c>
@@ -1981,8 +2180,12 @@
       <c r="J50">
         <v>69.266917236013896</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>15140896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-5056396</v>
       </c>
@@ -2013,8 +2216,12 @@
       <c r="J51">
         <v>20.1707552377766</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>5056396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-12455028</v>
       </c>
@@ -2045,8 +2252,12 @@
       <c r="J52">
         <v>52.009940369819901</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>12455028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-15273492</v>
       </c>
@@ -2077,8 +2288,12 @@
       <c r="J53">
         <v>71.129924132914795</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>15273492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-16691172</v>
       </c>
@@ -2109,8 +2324,12 @@
       <c r="J54">
         <v>86.026619632303394</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>16691172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-16272860</v>
       </c>
@@ -2141,8 +2360,12 @@
       <c r="J55">
         <v>84.857859481016305</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>16272860</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-16095764</v>
       </c>
@@ -2173,8 +2396,12 @@
       <c r="J56">
         <v>93.450269163708498</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>16095764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-16883800</v>
       </c>
@@ -2205,8 +2432,12 @@
       <c r="J57">
         <v>91.629218527316695</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>16883800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-16403528</v>
       </c>
@@ -2237,8 +2468,12 @@
       <c r="J58">
         <v>86.8498736175587</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>16403528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-16119176</v>
       </c>
@@ -2269,8 +2504,12 @@
       <c r="J59">
         <v>87.927823702966293</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>16119176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-16506460</v>
       </c>
@@ -2301,8 +2540,12 @@
       <c r="J60">
         <v>83.269528832312702</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>16506460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-12234660</v>
       </c>
@@ -2333,8 +2576,12 @@
       <c r="J61">
         <v>49.240994111093102</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>12234660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8794704</v>
       </c>
@@ -2365,8 +2612,12 @@
       <c r="J62">
         <v>33.1159413938651</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>8794704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1973056</v>
       </c>
@@ -2397,8 +2648,12 @@
       <c r="J63">
         <v>7.79728577866259</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>1973056</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4967572</v>
       </c>
@@ -2429,8 +2684,12 @@
       <c r="J64">
         <v>18.789808992496599</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>4967572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5614628</v>
       </c>
@@ -2461,8 +2720,12 @@
       <c r="J65">
         <v>20.715806286966199</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>5614628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7026904</v>
       </c>
@@ -2493,8 +2756,12 @@
       <c r="J66">
         <v>26.405482909523201</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>7026904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9186708</v>
       </c>
@@ -2525,8 +2792,12 @@
       <c r="J67">
         <v>35.0711144132556</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" ref="M67:M121" si="1">ABS(A67)</f>
+        <v>9186708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11103728</v>
       </c>
@@ -2557,8 +2828,12 @@
       <c r="J68">
         <v>43.4943503776895</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>11103728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13015804</v>
       </c>
@@ -2589,8 +2864,12 @@
       <c r="J69">
         <v>52.649630949016696</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>13015804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14516628</v>
       </c>
@@ -2621,8 +2900,12 @@
       <c r="J70">
         <v>63.116342051536002</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>14516628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15826936</v>
       </c>
@@ -2653,8 +2936,12 @@
       <c r="J71">
         <v>74.4815663662623</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>15826936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16322904</v>
       </c>
@@ -2685,8 +2972,12 @@
       <c r="J72">
         <v>80.887497827837606</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>16322904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16213724</v>
       </c>
@@ -2717,8 +3008,12 @@
       <c r="J73">
         <v>86.340327175121402</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>16213724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16620236</v>
       </c>
@@ -2749,8 +3044,12 @@
       <c r="J74">
         <v>91.259997451560807</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>16620236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16310984</v>
       </c>
@@ -2781,8 +3080,12 @@
       <c r="J75">
         <v>94.534931140512796</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>16310984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16178904</v>
       </c>
@@ -2813,8 +3116,12 @@
       <c r="J76">
         <v>94.458604549849994</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>16178904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16297884</v>
       </c>
@@ -2845,8 +3152,12 @@
       <c r="J77">
         <v>95.422014380734495</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>16297884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16207492</v>
       </c>
@@ -2877,8 +3188,12 @@
       <c r="J78">
         <v>95.782934006999099</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>16207492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16294980</v>
       </c>
@@ -2909,8 +3224,12 @@
       <c r="J79">
         <v>97.283005710590103</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>16294980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16702236</v>
       </c>
@@ -2941,8 +3260,12 @@
       <c r="J80">
         <v>94.527799708177298</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>16702236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16300824</v>
       </c>
@@ -2973,8 +3296,12 @@
       <c r="J81">
         <v>91.223218049778197</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>16300824</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16356116</v>
       </c>
@@ -3005,8 +3332,12 @@
       <c r="J82">
         <v>89.593634947075302</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>16356116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16109796</v>
       </c>
@@ -3037,8 +3368,12 @@
       <c r="J83">
         <v>81.985697525938505</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>16109796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14823800</v>
       </c>
@@ -3069,8 +3404,12 @@
       <c r="J84">
         <v>65.0320827159685</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>14823800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13888312</v>
       </c>
@@ -3101,8 +3440,12 @@
       <c r="J85">
         <v>56.909799766491403</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>13888312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12709020</v>
       </c>
@@ -3133,8 +3476,12 @@
       <c r="J86">
         <v>51.614553196629302</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>12709020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11687176</v>
       </c>
@@ -3165,8 +3512,12 @@
       <c r="J87">
         <v>45.541763524350202</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>11687176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10333020</v>
       </c>
@@ -3197,8 +3548,12 @@
       <c r="J88">
         <v>38.939658971229498</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>10333020</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9411920</v>
       </c>
@@ -3229,8 +3584,12 @@
       <c r="J89">
         <v>35.088761657288401</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>9411920</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8621608</v>
       </c>
@@ -3261,8 +3620,12 @@
       <c r="J90">
         <v>32.060471366499002</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>8621608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8203528</v>
       </c>
@@ -3293,8 +3656,12 @@
       <c r="J91">
         <v>30.246869235053701</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>8203528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7091568</v>
       </c>
@@ -3325,8 +3692,12 @@
       <c r="J92">
         <v>25.84497498847</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>7091568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5766392</v>
       </c>
@@ -3357,8 +3728,12 @@
       <c r="J93">
         <v>21.019655714360699</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>5766392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4519804</v>
       </c>
@@ -3389,8 +3764,12 @@
       <c r="J94">
         <v>16.274804923958399</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>4519804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3213568</v>
       </c>
@@ -3421,8 +3800,12 @@
       <c r="J95">
         <v>11.752723169049601</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>3213568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2526784</v>
       </c>
@@ -3453,8 +3836,12 @@
       <c r="J96">
         <v>9.2416502877731208</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>2526784</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2567804</v>
       </c>
@@ -3485,8 +3872,12 @@
       <c r="J97">
         <v>9.5644997092711801</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>2567804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2172392</v>
       </c>
@@ -3517,8 +3908,12 @@
       <c r="J98">
         <v>8.0965806244088299</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>2172392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1828784</v>
       </c>
@@ -3549,8 +3944,12 @@
       <c r="J99">
         <v>7.0613454181407</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>1828784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1230432</v>
       </c>
@@ -3581,8 +3980,12 @@
       <c r="J100">
         <v>5.2400780719203803</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>1230432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>623492</v>
       </c>
@@ -3613,8 +4016,12 @@
       <c r="J101">
         <v>3.3269881350955801</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>623492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>704156</v>
       </c>
@@ -3645,8 +4052,12 @@
       <c r="J102">
         <v>3.3606402344639199</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>704156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>555412</v>
       </c>
@@ -3677,8 +4088,12 @@
       <c r="J103">
         <v>3.4470576249510798</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>555412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>275452</v>
       </c>
@@ -3709,8 +4124,12 @@
       <c r="J104">
         <v>2.7123884838771599</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>275452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>349412</v>
       </c>
@@ -3741,8 +4160,12 @@
       <c r="J105">
         <v>2.8632490013482199</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>349412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>264392</v>
       </c>
@@ -3773,8 +4196,12 @@
       <c r="J106">
         <v>2.3087662482203299</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>264392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>164236</v>
       </c>
@@ -3805,8 +4232,12 @@
       <c r="J107">
         <v>2.2367248655265199</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>164236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-396236</v>
       </c>
@@ -3837,8 +4268,12 @@
       <c r="J108">
         <v>2.6252675303411901</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>396236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-2693920</v>
       </c>
@@ -3869,8 +4304,12 @@
       <c r="J109">
         <v>9.5235050064402493</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>2693920</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-3803332</v>
       </c>
@@ -3901,8 +4340,12 @@
       <c r="J110">
         <v>13.534402485996401</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>3803332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-5197960</v>
       </c>
@@ -3933,8 +4376,12 @@
       <c r="J111">
         <v>18.640923844362799</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>5197960</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-5696684</v>
       </c>
@@ -3965,8 +4412,12 @@
       <c r="J112">
         <v>22.8930013453895</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>5696684</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-12636132</v>
       </c>
@@ -3997,8 +4448,12 @@
       <c r="J113">
         <v>52.570586140419003</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>12636132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-16310520</v>
       </c>
@@ -4029,8 +4484,12 @@
       <c r="J114">
         <v>78.854111465270705</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>16310520</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-16235248</v>
       </c>
@@ -4061,8 +4520,12 @@
       <c r="J115">
         <v>93.900048961650597</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>16235248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-16075096</v>
       </c>
@@ -4093,8 +4556,12 @@
       <c r="J116">
         <v>91.265790016203496</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>16075096</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-11329124</v>
       </c>
@@ -4125,8 +4592,12 @@
       <c r="J117">
         <v>46.673334052931402</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>11329124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-204116</v>
       </c>
@@ -4157,8 +4628,12 @@
       <c r="J118">
         <v>17.296704458124101</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>204116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2887396</v>
       </c>
@@ -4189,8 +4664,12 @@
       <c r="J119">
         <v>17.992445670888301</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>2887396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1464652</v>
       </c>
@@ -4221,8 +4700,12 @@
       <c r="J120">
         <v>9.0839682772748596</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>1464652</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1347240</v>
       </c>
@@ -4252,6 +4735,40 @@
       </c>
       <c r="J121">
         <v>5.2321541792632802</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>1347240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="F123">
+        <f>10^8</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>SUM(A2:A123)</f>
+        <v>209288124</v>
+      </c>
+      <c r="M124">
+        <f>MIN(M2:M123)</f>
+        <v>164236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>A124/D123</f>
+        <v>2092.8812400000002</v>
+      </c>
+      <c r="M125">
+        <f>M124/D123</f>
+        <v>1.64236</v>
       </c>
     </row>
   </sheetData>
